--- a/ข้อมูลพื้นที่การเกษตร_มีข้อผิดพลาดครบทุกรูปแบบ.xlsx
+++ b/ข้อมูลพื้นที่การเกษตร_มีข้อผิดพลาดครบทุกรูปแบบ.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ข้อมูลพื้นที่การเกษตร" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ข้อมูลที่ถูกต้อง" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -98,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +122,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2388,4 +2392,1614 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>ลำดับ</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>จังหวัด</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>อำเภอ</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>ตำบล</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>ชื่อเกษตรกร</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>พืชที่ปลูก</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>พื้นที่ (ไร่)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>ผลผลิต (กก.)</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>ผลผลิต/ไร่</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>วันที่เก็บข้อมูล</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>เบอร์โทร</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>LINE ID</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>รายได้ (บาท)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>บางกอกน้อย</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>อรุณอมรินทร์</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>นายสมชาย ใจดี</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>ข้าว</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I2" s="10">
+        <f>H2/G2</f>
+        <v/>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>15/03/2567</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>0812345678</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>@somchai</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>บางกอกน้อย</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>อรุณอมรินทร์</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t>นายสมชาย ใจดี</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>ข้าว</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="10">
+        <f>H3/G3</f>
+        <v/>
+      </c>
+      <c r="J3" s="10" t="inlineStr">
+        <is>
+          <t>15/03/2567</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>0812345678</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>@somchai</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>พุทธมณฑล</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>ศาลายา</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>นางมาลี สวนดอก</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="I4" s="10">
+        <f>H4/G4</f>
+        <v/>
+      </c>
+      <c r="J4" s="10" t="inlineStr">
+        <is>
+          <t>20/03/2567</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>0823456789</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>@mali</t>
+        </is>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>พุทธมณฑล</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>ศาลายา</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>นางมาลี สวนดอก</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="I5" s="10">
+        <f>H5/G5</f>
+        <v/>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>20/03/2567</t>
+        </is>
+      </c>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>0823456789</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>@mali</t>
+        </is>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>พุทธมณฑล</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>ศาลายา</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>นายไม่ระบุ</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="I6" s="10">
+        <f>H6/G6</f>
+        <v/>
+      </c>
+      <c r="J6" s="10" t="inlineStr">
+        <is>
+          <t>21/03/2567</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>0823456789</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>@noname</t>
+        </is>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>พุทธมณฑล</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>ศาลายา</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr">
+        <is>
+          <t>นายประยุทธ์ รักนา</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>ข้าว</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="10">
+        <f>H7/G7</f>
+        <v/>
+      </c>
+      <c r="J7" s="10" t="inlineStr">
+        <is>
+          <t>30/03/2567</t>
+        </is>
+      </c>
+      <c r="K7" s="10" t="inlineStr">
+        <is>
+          <t>0834567890</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>@prayuth</t>
+        </is>
+      </c>
+      <c r="M7" s="10" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>ราชบุรี</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>โพธาราม</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>เตาปูน</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>นายทองดี มั่งมี</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>มะพร้าว</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="10">
+        <f>H8/G8</f>
+        <v/>
+      </c>
+      <c r="J8" s="10" t="inlineStr">
+        <is>
+          <t>01/04/2567</t>
+        </is>
+      </c>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>0812345678</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>@tongdee</t>
+        </is>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>ราชบุรี</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>โพธาราม</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>เตาปูน</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>นายทองดี มั่งมี</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>มะพร้าว</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I9" s="10">
+        <f>H9/G9</f>
+        <v/>
+      </c>
+      <c r="J9" s="10" t="inlineStr">
+        <is>
+          <t>01/04/2567</t>
+        </is>
+      </c>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>0812345678</t>
+        </is>
+      </c>
+      <c r="L9" s="10" t="inlineStr">
+        <is>
+          <t>@tongdee</t>
+        </is>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>ราชบุรี</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>โพธาราม</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>เตาปูน</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>นางสาวสุดา รักษ์ดิน</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>ผักบุ้ง</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="I10" s="10">
+        <f>H10/G10</f>
+        <v/>
+      </c>
+      <c r="J10" s="10" t="inlineStr">
+        <is>
+          <t>05/04/2567</t>
+        </is>
+      </c>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>0845678901</t>
+        </is>
+      </c>
+      <c r="L10" s="10" t="inlineStr">
+        <is>
+          <t>@suda</t>
+        </is>
+      </c>
+      <c r="M10" s="10" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>สมุทรสาคร</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>มหาชัย</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="inlineStr">
+        <is>
+          <t>นายวิชัย ประมงดี</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>กุ้ง</t>
+        </is>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="10">
+        <f>H11/G11</f>
+        <v/>
+      </c>
+      <c r="J11" s="10" t="inlineStr">
+        <is>
+          <t>10/04/2567</t>
+        </is>
+      </c>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>0856789012</t>
+        </is>
+      </c>
+      <c r="L11" s="10" t="inlineStr">
+        <is>
+          <t>@wichai</t>
+        </is>
+      </c>
+      <c r="M11" s="10" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>สมุทรสาคร</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>มหาชัย</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>นายวิชัย ประมงดี</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>กุ้ง</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="10">
+        <f>H12/G12</f>
+        <v/>
+      </c>
+      <c r="J12" s="10" t="inlineStr">
+        <is>
+          <t>10/04/2567</t>
+        </is>
+      </c>
+      <c r="K12" s="10" t="inlineStr">
+        <is>
+          <t>0856789012</t>
+        </is>
+      </c>
+      <c r="L12" s="10" t="inlineStr">
+        <is>
+          <t>@wichai</t>
+        </is>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>กำแพงแสน</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>กระตีบ</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>นางน้อย บุญมี</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>ข้าวโพด</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>12500</v>
+      </c>
+      <c r="I13" s="10">
+        <f>H13/G13</f>
+        <v/>
+      </c>
+      <c r="J13" s="10" t="inlineStr">
+        <is>
+          <t>15/04/2567</t>
+        </is>
+      </c>
+      <c r="K13" s="10" t="inlineStr">
+        <is>
+          <t>0867890123</t>
+        </is>
+      </c>
+      <c r="L13" s="10" t="inlineStr">
+        <is>
+          <t>@noi</t>
+        </is>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>กำแพงแสน</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>กระตีบ</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>นายใหญ่ ใจกล้า</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>อ้อย</t>
+        </is>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I14" s="10">
+        <f>H14/G14</f>
+        <v/>
+      </c>
+      <c r="J14" s="10" t="inlineStr">
+        <is>
+          <t>16/04/2567</t>
+        </is>
+      </c>
+      <c r="K14" s="10" t="inlineStr">
+        <is>
+          <t>0878901234</t>
+        </is>
+      </c>
+      <c r="L14" s="10" t="inlineStr">
+        <is>
+          <t>@yai</t>
+        </is>
+      </c>
+      <c r="M14" s="10" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>กำแพงแสน</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>กระตีบ</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>นายใหญ่ ใจกล้า</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>อ้อย</t>
+        </is>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I15" s="10">
+        <f>H15/G15</f>
+        <v/>
+      </c>
+      <c r="J15" s="10" t="inlineStr">
+        <is>
+          <t>17/04/2567</t>
+        </is>
+      </c>
+      <c r="K15" s="10" t="inlineStr">
+        <is>
+          <t>0878901234</t>
+        </is>
+      </c>
+      <c r="L15" s="10" t="inlineStr">
+        <is>
+          <t>@yai</t>
+        </is>
+      </c>
+      <c r="M15" s="10" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>ราชบุรี</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>ดำเนินสะดวก</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>ดอนไผ่</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>นายสมศักดิ์ สวนผลไม้</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>ส้มโอ</t>
+        </is>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="10">
+        <f>H16/G16</f>
+        <v/>
+      </c>
+      <c r="J16" s="10" t="inlineStr">
+        <is>
+          <t>20/04/2567</t>
+        </is>
+      </c>
+      <c r="K16" s="10" t="inlineStr">
+        <is>
+          <t>0889012345</t>
+        </is>
+      </c>
+      <c r="L16" s="10" t="inlineStr">
+        <is>
+          <t>@somsak</t>
+        </is>
+      </c>
+      <c r="M16" s="10" t="n">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>ราชบุรี</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>ดำเนินสะดวก</t>
+        </is>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>ดอนไผ่</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>นายสมศักดิ์ สวนผลไม้</t>
+        </is>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>ส้มโอ</t>
+        </is>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I17" s="10">
+        <f>H17/G17</f>
+        <v/>
+      </c>
+      <c r="J17" s="10" t="inlineStr">
+        <is>
+          <t>20/04/2567</t>
+        </is>
+      </c>
+      <c r="K17" s="10" t="inlineStr">
+        <is>
+          <t>0889012345</t>
+        </is>
+      </c>
+      <c r="L17" s="10" t="inlineStr">
+        <is>
+          <t>@somsak</t>
+        </is>
+      </c>
+      <c r="M17" s="10" t="n">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>กาญจนบุรี</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>ท่ามะกา</t>
+        </is>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>หวายเหนียว</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>นายเขียว รักป่า</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="inlineStr">
+        <is>
+          <t>ไผ่</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I18" s="10">
+        <f>H18/G18</f>
+        <v/>
+      </c>
+      <c r="J18" s="10" t="inlineStr">
+        <is>
+          <t>25/04/2567</t>
+        </is>
+      </c>
+      <c r="K18" s="10" t="inlineStr">
+        <is>
+          <t>0890123456</t>
+        </is>
+      </c>
+      <c r="L18" s="10" t="inlineStr">
+        <is>
+          <t>@khiew</t>
+        </is>
+      </c>
+      <c r="M18" s="10" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>กาญจนบุรี</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>ท่ามะกา</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>หวายเหนียว</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>นายเขียว รักป่า</t>
+        </is>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
+        <is>
+          <t>ไผ่</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I19" s="10">
+        <f>H19/G19</f>
+        <v/>
+      </c>
+      <c r="J19" s="10" t="inlineStr">
+        <is>
+          <t>25/04/2567</t>
+        </is>
+      </c>
+      <c r="K19" s="10" t="inlineStr">
+        <is>
+          <t>0890123456</t>
+        </is>
+      </c>
+      <c r="L19" s="10" t="inlineStr">
+        <is>
+          <t>@khiew</t>
+        </is>
+      </c>
+      <c r="M19" s="10" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>กาญจนบุรี</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>ท่ามะกา</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>หวายเหนียว</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t>นายเขียว รักป่า</t>
+        </is>
+      </c>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>ไผ่</t>
+        </is>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I20" s="10">
+        <f>H20/G20</f>
+        <v/>
+      </c>
+      <c r="J20" s="10" t="inlineStr">
+        <is>
+          <t>26/04/2567</t>
+        </is>
+      </c>
+      <c r="K20" s="10" t="inlineStr">
+        <is>
+          <t>0890123456</t>
+        </is>
+      </c>
+      <c r="L20" s="10" t="inlineStr">
+        <is>
+          <t>@khiew</t>
+        </is>
+      </c>
+      <c r="M20" s="10" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>พระปฐมเจดีย์</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>นายแดง รักเกษตร</t>
+        </is>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="I21" s="10">
+        <f>H21/G21</f>
+        <v/>
+      </c>
+      <c r="J21" s="10" t="inlineStr">
+        <is>
+          <t>30/04/2567</t>
+        </is>
+      </c>
+      <c r="K21" s="10" t="inlineStr">
+        <is>
+          <t>0901234567</t>
+        </is>
+      </c>
+      <c r="L21" s="10" t="inlineStr">
+        <is>
+          <t>@daeng</t>
+        </is>
+      </c>
+      <c r="M21" s="10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>พระปฐมเจดีย์</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>นายแดง รักเกษตร</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="I22" s="10">
+        <f>H22/G22</f>
+        <v/>
+      </c>
+      <c r="J22" s="10" t="inlineStr">
+        <is>
+          <t>30/04/2567</t>
+        </is>
+      </c>
+      <c r="K22" s="10" t="inlineStr">
+        <is>
+          <t>0901234567</t>
+        </is>
+      </c>
+      <c r="L22" s="10" t="inlineStr">
+        <is>
+          <t>@daeng</t>
+        </is>
+      </c>
+      <c r="M22" s="10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>นครปฐม</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>พระปฐมเจดีย์</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>นายแดง รักเกษตร</t>
+        </is>
+      </c>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="I23" s="10">
+        <f>H23/G23</f>
+        <v/>
+      </c>
+      <c r="J23" s="10" t="inlineStr">
+        <is>
+          <t>30/04/2567</t>
+        </is>
+      </c>
+      <c r="K23" s="10" t="inlineStr">
+        <is>
+          <t>0901234567</t>
+        </is>
+      </c>
+      <c r="L23" s="10" t="inlineStr">
+        <is>
+          <t>@daeng</t>
+        </is>
+      </c>
+      <c r="M23" s="10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>สุพรรณบุรี</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>อู่ทอง</t>
+        </is>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>จรเข้สามพัน</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>นางพิม รวยทรัพย์</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>ข้าว</t>
+        </is>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="10">
+        <f>H24/G24</f>
+        <v/>
+      </c>
+      <c r="J24" s="10" t="inlineStr">
+        <is>
+          <t>01/05/2567</t>
+        </is>
+      </c>
+      <c r="K24" s="10" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="L24" s="10" t="inlineStr">
+        <is>
+          <t>@pim</t>
+        </is>
+      </c>
+      <c r="M24" s="10" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>สุพรรณบุรี</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>อู่ทอง</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>จรเข้สามพัน</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>นางพิม รวยทรัพย์</t>
+        </is>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>ข้าว</t>
+        </is>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="10">
+        <f>H25/G25</f>
+        <v/>
+      </c>
+      <c r="J25" s="10" t="inlineStr">
+        <is>
+          <t>01/05/2567</t>
+        </is>
+      </c>
+      <c r="K25" s="10" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="L25" s="10" t="inlineStr">
+        <is>
+          <t>@pim</t>
+        </is>
+      </c>
+      <c r="M25" s="10" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>ประจวบคีรีขันธ์</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>หัวหิน</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>หัวหิน</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>นายเอก หาดทราย</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>สับปะรด</t>
+        </is>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="I26" s="10">
+        <f>H26/G26</f>
+        <v/>
+      </c>
+      <c r="J26" s="10" t="inlineStr">
+        <is>
+          <t>01/06/2567</t>
+        </is>
+      </c>
+      <c r="K26" s="10" t="inlineStr">
+        <is>
+          <t>0934567890</t>
+        </is>
+      </c>
+      <c r="L26" s="10" t="inlineStr">
+        <is>
+          <t>@ek</t>
+        </is>
+      </c>
+      <c r="M26" s="10" t="n">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>ประจวบคีรีขันธ์</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>หัวหิน</t>
+        </is>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>หัวหิน</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>นางโท หาดสวย</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>มะพร้าว</t>
+        </is>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I27" s="10">
+        <f>H27/G27</f>
+        <v/>
+      </c>
+      <c r="J27" s="10" t="inlineStr">
+        <is>
+          <t>02/06/2567</t>
+        </is>
+      </c>
+      <c r="K27" s="10" t="inlineStr">
+        <is>
+          <t>0945678901</t>
+        </is>
+      </c>
+      <c r="L27" s="10" t="inlineStr">
+        <is>
+          <t>@tho</t>
+        </is>
+      </c>
+      <c r="M27" s="10" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>